--- a/example.xlsx
+++ b/example.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>RefGeneName</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
   </si>
   <si>
     <t>20.96</t>
@@ -143,7 +140,7 @@
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="120" tabSelected="1">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -191,8 +188,10 @@
       </c>
     </row>
     <row r="3" spans="1:1025">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -223,7 +222,7 @@
         </is>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -306,7 +305,7 @@
         </is>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -354,25 +353,25 @@
         </is>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>b1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>b1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -382,7 +381,7 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -407,7 +406,7 @@
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -425,12 +424,12 @@
         </is>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -455,7 +454,7 @@
     </row>
     <row r="14" spans="1:1025">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -473,12 +472,12 @@
         </is>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -503,7 +502,7 @@
     </row>
     <row r="16" spans="1:1025">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -511,7 +510,7 @@
         </is>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -526,28 +525,28 @@
     </row>
     <row r="17" spans="1:1025">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>21.73</t>
         </is>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -555,10 +554,10 @@
         </is>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -568,7 +567,7 @@
     </row>
     <row r="19" spans="1:1025">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -576,7 +575,7 @@
         </is>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -591,7 +590,7 @@
     </row>
     <row r="20" spans="1:1025">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -599,10 +598,10 @@
         </is>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -612,7 +611,7 @@
     </row>
     <row r="21" spans="1:1025">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -620,7 +619,7 @@
         </is>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -635,7 +634,7 @@
     </row>
     <row r="22" spans="1:1025">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
@@ -660,7 +659,7 @@
     </row>
     <row r="23" spans="1:1025">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -685,7 +684,7 @@
     </row>
     <row r="24" spans="1:1025">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -710,7 +709,7 @@
     </row>
     <row r="25" spans="1:1025">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -718,7 +717,7 @@
         </is>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -733,7 +732,7 @@
     </row>
     <row r="26" spans="1:1025">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -741,7 +740,7 @@
         </is>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -756,7 +755,7 @@
     </row>
     <row r="27" spans="1:1025">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
@@ -764,7 +763,7 @@
         </is>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -779,7 +778,7 @@
     </row>
     <row r="28" spans="1:1025">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
@@ -804,7 +803,7 @@
     </row>
     <row r="29" spans="1:1025">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
@@ -822,7 +821,7 @@
         </is>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -140,7 +140,7 @@
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="120" tabSelected="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -168,7 +168,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Reference gene</t>
+          <t>Reference gene(s)</t>
         </is>
       </c>
       <c r="D1" t="s">
